--- a/experiments/capital/bert-base-uncased_15/word_level_error_type_summary_42.xlsx
+++ b/experiments/capital/bert-base-uncased_15/word_level_error_type_summary_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,21 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,27 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_S_as_B</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
